--- a/hourly datasets/cap_gen_year-1final.xlsx
+++ b/hourly datasets/cap_gen_year-1final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.07989994520557052</v>
+        <v>0.07324842731447992</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.001617673367991556</v>
+        <v>-0.003795161409000828</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002222884243407081</v>
+        <v>0.001526093552080868</v>
       </c>
       <c r="D3" t="n">
-        <v>0.410041016208362</v>
+        <v>0.2153907562878475</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05316516709653831</v>
+        <v>0.07225658393248177</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.005974504278677781</v>
+        <v>-0.006786323530935904</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002739157542694669</v>
+        <v>-0.0008039992870657532</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07828227183757897</v>
+        <v>0.06945326590547909</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005408543216767016</v>
+        <v>-0.0001988447026332939</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003695291415183152</v>
+        <v>0.003261509845689792</v>
       </c>
       <c r="D4" t="n">
-        <v>2.535367655607879</v>
+        <v>4.542246036399051</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1084670379424032</v>
+        <v>0.03220627872982648</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.001834198523948752</v>
+        <v>-0.006591464608181666</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01265128495748279</v>
+        <v>0.006193775202915077</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08530848842233754</v>
+        <v>0.07304958261184663</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01365106008022442</v>
+        <v>0.01378693901222808</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006390534613546882</v>
+        <v>0.001246915074496635</v>
       </c>
       <c r="D5" t="n">
-        <v>3.516427383338359</v>
+        <v>11.129803460544</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01698793821859717</v>
+        <v>0.07104700122381605</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001134207119032925</v>
+        <v>0.01134302515284482</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02637358631437978</v>
+        <v>0.01623085287161133</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09355100528579494</v>
+        <v>0.087035366326708</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007535951001407243</v>
+        <v>0.02613184096272474</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005104319295975096</v>
+        <v>0.007241067070083312</v>
       </c>
       <c r="D6" t="n">
-        <v>3.231507873547849</v>
+        <v>11.2032524834259</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04758239819762866</v>
+        <v>0.1073620715344264</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0008888035087968439</v>
+        <v>0.01193957932213652</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01794663835922341</v>
+        <v>0.04032410260331296</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08743589620697777</v>
+        <v>0.09938026827720466</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04065810134686621</v>
+        <v>0.1296239489556982</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004123398430078868</v>
+        <v>0.009305729189254507</v>
       </c>
       <c r="D7" t="n">
-        <v>4.014839922781825</v>
+        <v>13.55061898342566</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1495807634136491</v>
+        <v>0.1111128873428225</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03243955075357439</v>
+        <v>0.1113848426744075</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04950929965533466</v>
+        <v>0.1478630552369888</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1205580465524367</v>
+        <v>0.2028723762701781</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01675877818414574</v>
+        <v>0.06302183530241881</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003310708772372595</v>
+        <v>0.01099134757673806</v>
       </c>
       <c r="D8" t="n">
-        <v>2.3099687703631</v>
+        <v>9.161469941980201</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.137316894428425</v>
+        <v>0.107865222895561</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01015554723535642</v>
+        <v>0.0414791468174743</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02398249376903039</v>
+        <v>0.0845645237873633</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09665872338971626</v>
+        <v>0.1362702626168987</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01625720429565986</v>
+        <v>0.07659548303974745</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001356057183474522</v>
+        <v>0.007180895104746466</v>
       </c>
       <c r="D9" t="n">
-        <v>3.204947745940704</v>
+        <v>14.58460464864593</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1825139321017377</v>
+        <v>0.09498631167016788</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01344938608375715</v>
+        <v>0.06252115857005991</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01972971664945042</v>
+        <v>0.09066980750943496</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09615714950123039</v>
+        <v>0.1498439103542274</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.07989994520557052</v>
+        <v>-0.07324842731447992</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001166934359460572</v>
+        <v>0.0004783895134771778</v>
       </c>
       <c r="D10" t="n">
-        <v>-90.73668121694774</v>
+        <v>-189.0239265829394</v>
       </c>
       <c r="E10" t="n">
-        <v>4.961151516078054e-09</v>
+        <v>1.248800245737904e-139</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.08218712247506416</v>
+        <v>-0.07418606367300642</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0776127679360769</v>
+        <v>-0.07231079095595341</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02797150391474641</v>
+        <v>-0.02624106002961484</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001316912001659645</v>
+        <v>0.0005048359078661779</v>
       </c>
       <c r="D11" t="n">
-        <v>-25.59471991775928</v>
+        <v>-57.52596956215765</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0008830560240638602</v>
+        <v>0.002419921951857317</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.03055263575680308</v>
+        <v>-0.0272305288798836</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02539037207268974</v>
+        <v>-0.02525159117934609</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05192844129082411</v>
+        <v>0.04700736728486508</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02248606932127085</v>
+        <v>-0.02228871391517218</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001262234531629024</v>
+        <v>0.0005040629494436603</v>
       </c>
       <c r="D12" t="n">
-        <v>-22.70140354652671</v>
+        <v>-50.39777492183121</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01172724801672956</v>
+        <v>4.396786010126154e-18</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.02496003399235627</v>
+        <v>-0.02327666854481354</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02001210465018544</v>
+        <v>-0.02130075928553082</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05741387588429967</v>
+        <v>0.05095971339930774</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0153534722133071</v>
+        <v>-0.01528508939017489</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001244191342918146</v>
+        <v>0.000489758908390348</v>
       </c>
       <c r="D13" t="n">
-        <v>-16.34087809317312</v>
+        <v>-35.18080837493006</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1199977997546039</v>
+        <v>0.03283051483261834</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01779207239212122</v>
+        <v>-0.01624500775968279</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01291487203449296</v>
+        <v>-0.01432517102066698</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06454647299226342</v>
+        <v>0.05796333792430503</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01120570677673459</v>
+        <v>-0.01134805941195547</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001214286125602051</v>
+        <v>0.0004718262581276751</v>
       </c>
       <c r="D14" t="n">
-        <v>-12.97753911962326</v>
+        <v>-27.55569572231164</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05439820153868831</v>
+        <v>6.09116909327187e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01358569289057443</v>
+        <v>-0.0122728296759821</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.008825720662894752</v>
+        <v>-0.01042328914792883</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06869423842883593</v>
+        <v>0.06190036790252446</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.008984350962210608</v>
+        <v>-0.008123392314712445</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001197678438555922</v>
+        <v>0.0004663905332503993</v>
       </c>
       <c r="D15" t="n">
-        <v>-10.44047027448327</v>
+        <v>-22.83870984482963</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05980928838342078</v>
+        <v>0.02597980898641593</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01133178643442239</v>
+        <v>-0.009037509060527981</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.006636915489998829</v>
+        <v>-0.007209275568896909</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07091559424335991</v>
+        <v>0.06512503499976748</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.005557481007490857</v>
+        <v>-0.007082675548082772</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001165820628044213</v>
+        <v>0.0004611758524982808</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.401484882608446</v>
+        <v>-18.04514258191906</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08584433402430211</v>
+        <v>0.0009354128745240235</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.007842475744727427</v>
+        <v>-0.007986572455690937</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.003272486270254288</v>
+        <v>-0.006178778640474608</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07434246419807966</v>
+        <v>0.06616575176639715</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.005091938567012956</v>
+        <v>-0.005729584439980588</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001203729706224134</v>
+        <v>0.0004667201715480585</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.327143326675042</v>
+        <v>-14.41715546971442</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06284963669339348</v>
+        <v>0.05510225026191879</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.007451234779171545</v>
+        <v>-0.00664434780424555</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.002732642354854369</v>
+        <v>-0.004814821075715624</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07480800663855756</v>
+        <v>0.06751884287449933</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.005289934285093923</v>
+        <v>-0.006160438774124211</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001225438635175323</v>
+        <v>0.0005067575402922984</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.403037054860214</v>
+        <v>-14.79965951774234</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08944784865385058</v>
+        <v>0.08446336132327346</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.007691779616911689</v>
+        <v>-0.007153675689954845</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.002888088953276156</v>
+        <v>-0.005167201858293579</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0746100109204766</v>
+        <v>0.06708798854035571</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.003697132100971992</v>
+        <v>-0.004965386119004362</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001223581276837792</v>
+        <v>0.0004871583189600687</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.99495304912732</v>
+        <v>-12.39552627087503</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1011260442383552</v>
+        <v>0.08591827722574497</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.00609533706847541</v>
+        <v>-0.005920208140754512</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.001298927133468574</v>
+        <v>-0.004010564097254212</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07620281310459853</v>
+        <v>0.06828304119547556</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002132215858448633</v>
+        <v>-0.003593346238629976</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001233709779209837</v>
+        <v>0.0004703072846278339</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.660981811596121</v>
+        <v>-9.392975032980884</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1020154637526789</v>
+        <v>0.1067851385644758</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.004550272804638699</v>
+        <v>-0.00451513976314539</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0002858410877414317</v>
+        <v>-0.002671552714114561</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07776772934712188</v>
+        <v>0.06965508107584995</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.001369667868270067</v>
+        <v>-0.002186109672592474</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001245008181371602</v>
+        <v>0.0004698457790308845</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.514739526018048</v>
+        <v>-5.948771536271668</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07702597977393758</v>
+        <v>0.007424425807992383</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.003809869165033564</v>
+        <v>-0.003106998438004892</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00107053342849343</v>
+        <v>-0.001265220907180056</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07853027733730045</v>
+        <v>0.07106231764188745</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0004828659430617189</v>
+        <v>-0.001480293958604121</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001229357894993828</v>
+        <v>0.0004650806707210647</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.724899573624099</v>
+        <v>-4.26244124710039</v>
       </c>
       <c r="E22" t="n">
-        <v>0.07475673471202018</v>
+        <v>0.01288693306241432</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.002892392504052775</v>
+        <v>-0.002391842927070885</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001926660617929338</v>
+        <v>-0.0005687449901373571</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07941707926250879</v>
+        <v>0.0717681333558758</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0003142161312098662</v>
+        <v>-0.001500490375491308</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001250389719429306</v>
+        <v>0.0004603144120736812</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.433407045658722</v>
+        <v>-4.047576328841511</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0812473643388676</v>
+        <v>0.003841905129779102</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.002764964633865945</v>
+        <v>-0.002402697435920454</v>
       </c>
       <c r="G23" t="n">
-        <v>0.002136532371446212</v>
+        <v>-0.0005982833150621613</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07958572907436065</v>
+        <v>0.07174793693898861</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0005484885304871867</v>
+        <v>-0.0009783276163937416</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001235689776446654</v>
+        <v>0.0004614092822246508</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.02328638991831</v>
+        <v>-2.500948478934665</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1249669881836148</v>
+        <v>0.1101709704898602</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.001873448244194486</v>
+        <v>-0.001882681203431733</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00297042530516886</v>
+        <v>-7.397402935574996e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0804484337360577</v>
+        <v>0.07227009969808618</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0007407133342023622</v>
+        <v>-0.0006415966011542457</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001192741448304682</v>
+        <v>0.0004407256517024402</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.7007299963238334</v>
+        <v>-2.074463096965729</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1745554619837817</v>
+        <v>0.06388096876238908</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.00159704520470033</v>
+        <v>-0.001505410772797969</v>
       </c>
       <c r="G25" t="n">
-        <v>0.003078471873105055</v>
+        <v>0.0002222175704894778</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08064065853977288</v>
+        <v>0.07260683071332567</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02716482523666007</v>
+        <v>0.07404698207497888</v>
       </c>
       <c r="C26" t="n">
-        <v>0.003960210509316478</v>
+        <v>0.004399909344603928</v>
       </c>
       <c r="D26" t="n">
-        <v>5.71460038762517</v>
+        <v>22.57443277047113</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.2285283392891052</v>
+        <v>0.002466021993036876</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01923148701859732</v>
+        <v>0.06542330121809975</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03575457331106887</v>
+        <v>0.08267066293185797</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1070647704422306</v>
+        <v>0.1472954093894588</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year-1final.xlsx
+++ b/hourly datasets/cap_gen_year-1final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.07324842731447992</v>
+        <v>0.1644129276282225</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.003795161409000828</v>
+        <v>5.758508218996128e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001526093552080868</v>
+        <v>0.0004803100634699367</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2153907562878475</v>
+        <v>0.5909276266103137</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07225658393248177</v>
+        <v>0.0649258012500506</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.006786323530935904</v>
+        <v>-0.0008838073890817962</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0008039992870657532</v>
+        <v>0.0009989775534617192</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06945326590547909</v>
+        <v>0.1644705127104125</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0001988447026332939</v>
+        <v>0.004351211841010456</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003261509845689792</v>
+        <v>0.0007048118004076447</v>
       </c>
       <c r="D4" t="n">
-        <v>4.542246036399051</v>
+        <v>5.034528181572235</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03220627872982648</v>
+        <v>0.03206444660934276</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.006591464608181666</v>
+        <v>0.002969803123422347</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006193775202915077</v>
+        <v>0.005732620558598565</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07304958261184663</v>
+        <v>0.168764139469233</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01378693901222808</v>
+        <v>0.01389885822959776</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001246915074496635</v>
+        <v>0.001239881119939165</v>
       </c>
       <c r="D5" t="n">
-        <v>11.129803460544</v>
+        <v>11.54399051229067</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07104700122381605</v>
+        <v>0.06990619334157348</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01134302515284482</v>
+        <v>0.01146873069748544</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01623085287161133</v>
+        <v>0.01632898576171007</v>
       </c>
       <c r="H5" t="n">
-        <v>0.087035366326708</v>
+        <v>0.1783117858578203</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02613184096272474</v>
+        <v>0.02543143238483607</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007241067070083312</v>
+        <v>0.002755329223554764</v>
       </c>
       <c r="D6" t="n">
-        <v>11.2032524834259</v>
+        <v>11.27388591042044</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1073620715344264</v>
+        <v>0.08769715160153979</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01193957932213652</v>
+        <v>0.02003107515514821</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04032410260331296</v>
+        <v>0.03083178961452394</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09938026827720466</v>
+        <v>0.1898443600130586</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1296239489556982</v>
+        <v>0.03691116647149409</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009305729189254507</v>
+        <v>0.003659523230918313</v>
       </c>
       <c r="D7" t="n">
-        <v>13.55061898342566</v>
+        <v>9.71775117415466</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1111128873428225</v>
+        <v>0.0007549217411945617</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1113848426744075</v>
+        <v>0.02973861902010179</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1478630552369888</v>
+        <v>0.04408371392288638</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2028723762701781</v>
+        <v>0.2013240940997166</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06302183530241881</v>
+        <v>0.06365440046894059</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01099134757673806</v>
+        <v>0.008745984312425755</v>
       </c>
       <c r="D8" t="n">
-        <v>9.161469941980201</v>
+        <v>9.546819366059417</v>
       </c>
       <c r="E8" t="n">
-        <v>0.107865222895561</v>
+        <v>0.04443764656714787</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0414791468174743</v>
+        <v>0.04651255294817385</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0845645237873633</v>
+        <v>0.08079624798970733</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1362702626168987</v>
+        <v>0.2280673280971631</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07659548303974745</v>
+        <v>0.07672014762727902</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007180895104746466</v>
+        <v>0.004438300818557752</v>
       </c>
       <c r="D9" t="n">
-        <v>14.58460464864593</v>
+        <v>14.73266693100093</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09498631167016788</v>
+        <v>0.01512186483374011</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06252115857005991</v>
+        <v>0.06802122078768624</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09066980750943496</v>
+        <v>0.08541907446687183</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1498439103542274</v>
+        <v>0.2411330752555016</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.07324842731447992</v>
+        <v>-0.1644129276282225</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004783895134771778</v>
+        <v>0.002243874384109128</v>
       </c>
       <c r="D10" t="n">
-        <v>-189.0239265829394</v>
+        <v>-191.7192430660797</v>
       </c>
       <c r="E10" t="n">
-        <v>1.248800245737904e-139</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.07418606367300642</v>
+        <v>-0.1688110982738554</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07231079095595341</v>
+        <v>-0.1600147569825897</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02624106002961484</v>
+        <v>-0.1180953598053943</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005048359078661779</v>
+        <v>0.00230108846641554</v>
       </c>
       <c r="D11" t="n">
-        <v>-57.52596956215765</v>
+        <v>-62.31998862253953</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002419921951857317</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0272305288798836</v>
+        <v>-0.1226056689305536</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02525159117934609</v>
+        <v>-0.1135850506802349</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04700736728486508</v>
+        <v>0.04631756782282828</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02228871391517218</v>
+        <v>-0.1129802957303966</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005040629494436603</v>
+        <v>0.002288081786349923</v>
       </c>
       <c r="D12" t="n">
-        <v>-50.39777492183121</v>
+        <v>-54.07475025172925</v>
       </c>
       <c r="E12" t="n">
-        <v>4.396786010126154e-18</v>
+        <v>2.093981562406875e-133</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.02327666854481354</v>
+        <v>-0.117465112047717</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02130075928553082</v>
+        <v>-0.1084954794130763</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05095971339930774</v>
+        <v>0.0514326318978259</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01528508939017489</v>
+        <v>-0.1061821189147043</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000489758908390348</v>
+        <v>0.00228513270710968</v>
       </c>
       <c r="D13" t="n">
-        <v>-35.18080837493006</v>
+        <v>-40.11540882328785</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03283051483261834</v>
+        <v>2.033919606352092e-89</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01624500775968279</v>
+        <v>-0.1106611550874712</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01432517102066698</v>
+        <v>-0.1017030827419374</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05796333792430503</v>
+        <v>0.05823080871351823</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01134805941195547</v>
+        <v>-0.1022858159095502</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0004718262581276751</v>
+        <v>0.002277654074857105</v>
       </c>
       <c r="D14" t="n">
-        <v>-27.55569572231164</v>
+        <v>-33.59307620066063</v>
       </c>
       <c r="E14" t="n">
-        <v>6.09116909327187e-14</v>
+        <v>3.057583442135537e-52</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0122728296759821</v>
+        <v>-0.1067501941241174</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01042328914792883</v>
+        <v>-0.09782143769498301</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06190036790252446</v>
+        <v>0.06212711171867236</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.008123392314712445</v>
+        <v>-0.1010375239842642</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004663905332503993</v>
+        <v>0.00227718802861228</v>
       </c>
       <c r="D15" t="n">
-        <v>-22.83870984482963</v>
+        <v>-29.99117738407764</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02597980898641593</v>
+        <v>0.01290549744408518</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.009037509060527981</v>
+        <v>-0.1055009902273536</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.007209275568896909</v>
+        <v>-0.09657405774117486</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06512503499976748</v>
+        <v>0.0633754036439583</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.007082675548082772</v>
+        <v>-0.09780029536251636</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004611758524982808</v>
+        <v>0.002250353968463219</v>
       </c>
       <c r="D16" t="n">
-        <v>-18.04514258191906</v>
+        <v>-22.60803989326072</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0009354128745240235</v>
+        <v>0.0005965398823098759</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.007986572455690937</v>
+        <v>-0.1022111663676216</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006178778640474608</v>
+        <v>-0.09338942435741114</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06616575176639715</v>
+        <v>0.06661263226570618</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.005729584439980588</v>
+        <v>-0.09598170016901199</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004667201715480585</v>
+        <v>0.002258795280635513</v>
       </c>
       <c r="D17" t="n">
-        <v>-14.41715546971442</v>
+        <v>-19.25562965828096</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05510225026191879</v>
+        <v>0.03200901312615248</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.00664434780424555</v>
+        <v>-0.1004091157989204</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.004814821075715624</v>
+        <v>-0.09155428453910362</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06751884287449933</v>
+        <v>0.06843122745921056</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006160438774124211</v>
+        <v>-0.09661350390589202</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005067575402922984</v>
+        <v>0.002276968781796699</v>
       </c>
       <c r="D18" t="n">
-        <v>-14.79965951774234</v>
+        <v>-20.01972592817874</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08446336132327346</v>
+        <v>4.355144981995015e-17</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.007153675689954845</v>
+        <v>-0.101076539295671</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.005167201858293579</v>
+        <v>-0.092150468516113</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06708798854035571</v>
+        <v>0.06779942372233053</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.004965386119004362</v>
+        <v>-0.09542460816127066</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004871583189600687</v>
+        <v>0.002272279519674028</v>
       </c>
       <c r="D19" t="n">
-        <v>-12.39552627087503</v>
+        <v>-17.42370052049663</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08591827722574497</v>
+        <v>0.05676788889894999</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.005920208140754512</v>
+        <v>-0.09987845253019281</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.004010564097254212</v>
+        <v>-0.0909707637923485</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06828304119547556</v>
+        <v>0.06898831946695189</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.003593346238629976</v>
+        <v>-0.09413499564909475</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004703072846278339</v>
+        <v>0.002270188462699432</v>
       </c>
       <c r="D20" t="n">
-        <v>-9.392975032980884</v>
+        <v>-14.85734482035729</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1067851385644758</v>
+        <v>4.634251236031497e-08</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.00451513976314539</v>
+        <v>-0.09858474152728373</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.002671552714114561</v>
+        <v>-0.08968524977090579</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06965508107584995</v>
+        <v>0.07027793197912779</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002186109672592474</v>
+        <v>-0.09275783981102494</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004698457790308845</v>
+        <v>0.002272551609604951</v>
       </c>
       <c r="D21" t="n">
-        <v>-5.948771536271668</v>
+        <v>-11.70854067857449</v>
       </c>
       <c r="E21" t="n">
-        <v>0.007424425807992383</v>
+        <v>0.04741532826272409</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.003106998438004892</v>
+        <v>-0.09721221731561254</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.001265220907180056</v>
+        <v>-0.08830346230643732</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07106231764188745</v>
+        <v>0.07165508781719761</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.001480293958604121</v>
+        <v>-0.09225948159139878</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004650806707210647</v>
+        <v>0.002273501726105746</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.26244124710039</v>
+        <v>-10.5313126399131</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01288693306241432</v>
+        <v>0.1409026714340376</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.002391842927070885</v>
+        <v>-0.09671572127399256</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0005687449901373571</v>
+        <v>-0.08780324190880501</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0717681333558758</v>
+        <v>0.07215344603682376</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.001500490375491308</v>
+        <v>-0.09222666751552397</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004603144120736812</v>
+        <v>0.002269642164071812</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.047576328841511</v>
+        <v>-9.835732186460994</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003841905129779102</v>
+        <v>0.001284690234720559</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.002402697435920454</v>
+        <v>-0.09667534256942106</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0005982833150621613</v>
+        <v>-0.08777799246162687</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07174793693898861</v>
+        <v>0.07218626011269857</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.0009783276163937416</v>
+        <v>-0.09121385252631713</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004614092822246508</v>
+        <v>0.002261988119252753</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.500948478934665</v>
+        <v>-7.612359177293491</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1101709704898602</v>
+        <v>0.0752364297671903</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.001882681203431733</v>
+        <v>-0.09564752591302747</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.397402935574996e-05</v>
+        <v>-0.08678017913960677</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07227009969808618</v>
+        <v>0.07319907510190542</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0006415966011542457</v>
+        <v>-0.09117940612506044</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004407256517024402</v>
+        <v>0.002243692375172767</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.074463096965729</v>
+        <v>-7.227941587541884</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06388096876238908</v>
+        <v>0.06224714065280199</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.001505410772797969</v>
+        <v>-0.09557722043539583</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0002222175704894778</v>
+        <v>-0.08678159181472506</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07260683071332567</v>
+        <v>0.07323352150316211</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.07404698207497888</v>
+        <v>0.08841575640935871</v>
       </c>
       <c r="C26" t="n">
-        <v>0.004399909344603928</v>
+        <v>0.007104862305268717</v>
       </c>
       <c r="D26" t="n">
-        <v>22.57443277047113</v>
+        <v>23.48487550540731</v>
       </c>
       <c r="E26" t="n">
-        <v>0.002466021993036876</v>
+        <v>0.0006076735914554184</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06542330121809975</v>
+        <v>0.07449045326680986</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08267066293185797</v>
+        <v>0.1023410595519076</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1472954093894588</v>
+        <v>0.2528286840375812</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year-1final.xlsx
+++ b/hourly datasets/cap_gen_year-1final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,683 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1644129276282225</v>
+        <v>0.1609937652266441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.758508218996128e-05</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0004803100634699367</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5909276266103137</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0649258012500506</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.0008838073890817962</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0009989775534617192</v>
-      </c>
+        <v>0.06732675825338529</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.1644705127104125</v>
+        <v>0.2283205234800294</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004351211841010456</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0007048118004076447</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.034528181572235</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.03206444660934276</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.002969803123422347</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.005732620558598565</v>
-      </c>
+        <v>0.07495267438501052</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.168764139469233</v>
+        <v>0.2359464396116546</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01389885822959776</v>
+        <v>0.07031837262577524</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001239881119939165</v>
+        <v>0.008301928843133622</v>
       </c>
       <c r="D5" t="n">
-        <v>11.54399051229067</v>
+        <v>-2898659457611.042</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06990619334157348</v>
+        <v>0.06746850419104353</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01146873069748544</v>
+        <v>0.05404243140926995</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01632898576171007</v>
+        <v>0.08659431384227945</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1783117858578203</v>
+        <v>0.2313121378524193</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02543143238483607</v>
+        <v>0.0256679353092471</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002755329223554764</v>
+        <v>0.004575382974968281</v>
       </c>
       <c r="D6" t="n">
-        <v>11.27388591042044</v>
+        <v>2.863724429748117</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08769715160153979</v>
+        <v>0.07841388265548134</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02003107515514821</v>
+        <v>0.01669737712673798</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03083178961452394</v>
+        <v>0.03463849349175589</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1898443600130586</v>
+        <v>0.1866617005358912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03691116647149409</v>
+        <v>0.01771203847967302</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003659523230918313</v>
+        <v>0.002312714157955482</v>
       </c>
       <c r="D7" t="n">
-        <v>9.71775117415466</v>
+        <v>1.732859824749732</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0007549217411945617</v>
+        <v>0.05534163729948974</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02973861902010179</v>
+        <v>0.01317595815273482</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04408371392288638</v>
+        <v>0.02224811880661143</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2013240940997166</v>
+        <v>0.1787058037063171</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06365440046894059</v>
+        <v>0.01017962835927406</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008745984312425755</v>
+        <v>0.001382291709391501</v>
       </c>
       <c r="D8" t="n">
-        <v>9.546819366059417</v>
+        <v>0.7394120925014661</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04443764656714787</v>
+        <v>0.05506278969102659</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04651255294817385</v>
+        <v>0.007468783524116581</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08079624798970733</v>
+        <v>0.0128904731944318</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2280673280971631</v>
+        <v>0.1711733935859182</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07672014762727902</v>
+        <v>0.007078955541027616</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004438300818557752</v>
+        <v>0.001339058309943384</v>
       </c>
       <c r="D9" t="n">
-        <v>14.73266693100093</v>
+        <v>0.2578219859705039</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01512186483374011</v>
+        <v>0.03329880170089298</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06802122078768624</v>
+        <v>0.004453323458616759</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08541907446687183</v>
+        <v>0.009704587623438628</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2411330752555016</v>
+        <v>0.1680727207676717</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1644129276282225</v>
+        <v>0.001347583734443785</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002243874384109128</v>
+        <v>0.0004606859041834599</v>
       </c>
       <c r="D10" t="n">
-        <v>-191.7192430660797</v>
+        <v>0.06010202711669116</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.03486214024434322</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1688110982738554</v>
+        <v>0.0004442649395541191</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1600147569825897</v>
+        <v>0.002250902529333486</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1623413489610879</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1180953598053943</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.00230108846641554</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-62.31998862253953</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.1226056689305536</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.1135850506802349</v>
-      </c>
+        <v>0.02342172758121825</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.04631756782282828</v>
+        <v>0.1844154928078623</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1129802957303966</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.002288081786349923</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-54.07475025172925</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.093981562406875e-133</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.117465112047717</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.1084954794130763</v>
-      </c>
+        <v>0.03763462393322742</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.0514326318978259</v>
+        <v>0.1986283891598715</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1061821189147043</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.00228513270710968</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-40.11540882328785</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.033919606352092e-89</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.1106611550874712</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.1017030827419374</v>
-      </c>
+        <v>0.04438888331551254</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.05823080871351823</v>
+        <v>0.2053826485421567</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1022858159095502</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.002277654074857105</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-33.59307620066063</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3.057583442135537e-52</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.1067501941241174</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.09782143769498301</v>
-      </c>
+        <v>0.04944361483145905</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.06212711171867236</v>
+        <v>0.2104373800581031</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1010375239842642</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.00227718802861228</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-29.99117738407764</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.01290549744408518</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.1055009902273536</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.09657405774117486</v>
-      </c>
+        <v>0.05401530431502669</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.0633754036439583</v>
+        <v>0.2150090695416708</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.09780029536251636</v>
+        <v>0.05779928885048211</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002250353968463219</v>
+        <v>0.007403461896217422</v>
       </c>
       <c r="D16" t="n">
-        <v>-22.60803989326072</v>
+        <v>11.85849268626988</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0005965398823098759</v>
+        <v>0.05223502247494265</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1022111663676216</v>
+        <v>0.04327622260331647</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.09338942435741114</v>
+        <v>0.07232235509764777</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06661263226570618</v>
+        <v>0.2187930540771262</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09598170016901199</v>
+        <v>0.0607907447738734</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002258795280635513</v>
+        <v>0.007236831726647693</v>
       </c>
       <c r="D17" t="n">
-        <v>-19.25562965828096</v>
+        <v>12.23210076616483</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03200901312615248</v>
+        <v>0.04936085916821359</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1004091157989204</v>
+        <v>0.04659588638668243</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.09155428453910362</v>
+        <v>0.07498560316106433</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06843122745921056</v>
+        <v>0.2217845100005175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.09661350390589202</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.002276968781796699</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-20.01972592817874</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4.355144981995015e-17</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.101076539295671</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.092150468516113</v>
-      </c>
+        <v>-0.1609937652266441</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.06779942372233053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.09542460816127066</v>
+        <v>0.06317991434890674</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002272279519674028</v>
+        <v>0.007251546407040833</v>
       </c>
       <c r="D19" t="n">
-        <v>-17.42370052049663</v>
+        <v>2205657588155.395</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05676788889894999</v>
+        <v>0.05355010983478414</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.09987845253019281</v>
+        <v>0.04895466508766864</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0909707637923485</v>
+        <v>0.07740516361014484</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06898831946695189</v>
+        <v>0.2241736795755508</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.09413499564909475</v>
+        <v>0.06333486923089782</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002270188462699432</v>
+        <v>0.007470459942775563</v>
       </c>
       <c r="D20" t="n">
-        <v>-14.85734482035729</v>
+        <v>-2146861501808.214</v>
       </c>
       <c r="E20" t="n">
-        <v>4.634251236031497e-08</v>
+        <v>0.05701375089264056</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.09858474152728373</v>
+        <v>0.04867969240930516</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.08968524977090579</v>
+        <v>0.07799004605249028</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07027793197912779</v>
+        <v>0.2243286344575419</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.09275783981102494</v>
+        <v>0.06311178390145847</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002272551609604951</v>
+        <v>0.007264729977244719</v>
       </c>
       <c r="D21" t="n">
-        <v>-11.70854067857449</v>
+        <v>12.33083495560344</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04741532826272409</v>
+        <v>0.05973643227610392</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.09721221731561254</v>
+        <v>0.04886095184582429</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.08830346230643732</v>
+        <v>0.07736261595709273</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07165508781719761</v>
+        <v>0.2241055491281026</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.09225948159139878</v>
+        <v>0.06352882323557643</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002273501726105746</v>
+        <v>0.007258909351113647</v>
       </c>
       <c r="D22" t="n">
-        <v>-10.5313126399131</v>
+        <v>12.34414641217973</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1409026714340376</v>
+        <v>0.06243387354347495</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.09671572127399256</v>
+        <v>0.04928659607536647</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.08780324190880501</v>
+        <v>0.07777105039578659</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07215344603682376</v>
+        <v>0.2245225884622205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.09222666751552397</v>
+        <v>0.06563676626897748</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002269642164071812</v>
+        <v>0.007439969666634025</v>
       </c>
       <c r="D23" t="n">
-        <v>-9.835732186460994</v>
+        <v>12.76314161521639</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001284690234720559</v>
+        <v>0.0575798220498769</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.09667534256942106</v>
+        <v>0.05104184199701441</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.08777799246162687</v>
+        <v>0.08023169054094062</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07218626011269857</v>
+        <v>0.2266305314956216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.09121385252631713</v>
+        <v>0.06632239330511167</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002261988119252753</v>
+        <v>0.007261747254362975</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.612359177293491</v>
+        <v>12.89644886104007</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0752364297671903</v>
+        <v>0.06136057187355696</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.09564752591302747</v>
+        <v>0.05207835314917655</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.08678017913960677</v>
+        <v>0.0805664334610466</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07319907510190542</v>
+        <v>0.2273161585317558</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.09117940612506044</v>
+        <v>0.06776715574512451</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002243692375172767</v>
+        <v>0.007482761128377513</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.227941587541884</v>
+        <v>15690696889049.63</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06224714065280199</v>
+        <v>0.07174640948675752</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.09557722043539583</v>
+        <v>0.05309059309092674</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.08678159181472506</v>
+        <v>0.08244371839932242</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07323352150316211</v>
+        <v>0.2287609209717686</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.06746573575592232</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.007389980821796724</v>
+      </c>
+      <c r="D26" t="n">
+        <v>12.60653218430758</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.06847121578709091</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.05297183633920472</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.08195963517263999</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2284595009825664</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.06681108101383898</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.007719688318505421</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-2977424450330.677</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.06222326196274704</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.05167070774314321</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.08195145428453461</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2278048462404831</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.06778880662172586</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.007550059691334927</v>
+      </c>
+      <c r="D28" t="n">
+        <v>12.43989950791204</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.08681465862014252</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.05298058092188872</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.08259703232156294</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.22878257184837</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.08841575640935871</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.007104862305268717</v>
-      </c>
-      <c r="D26" t="n">
-        <v>23.48487550540731</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.0006076735914554184</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.07449045326680986</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.1023410595519076</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.2528286840375812</v>
+      <c r="B29" t="n">
+        <v>0.01051821696571737</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.001249550696893102</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.624653633552927</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.01020129227988134</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.008064612613370022</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01297182131806454</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1715119821923615</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year-1final.xlsx
+++ b/hourly datasets/cap_gen_year-1final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1609937652266441</v>
+        <v>0.1061941420915777</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06732675825338529</v>
+        <v>0.07538709310445521</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2283205234800294</v>
+        <v>0.1815812351960329</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07495267438501052</v>
+        <v>0.09129632098960513</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2359464396116546</v>
+        <v>0.1974904630811828</v>
       </c>
     </row>
     <row r="5">
@@ -536,25 +536,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07031837262577524</v>
+        <v>0.08244452408814788</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008301928843133622</v>
+        <v>0.009968173993340684</v>
       </c>
       <c r="D5" t="n">
-        <v>-2898659457611.042</v>
+        <v>7.770984081288365</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06746850419104353</v>
+        <v>0.07090955337166575</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05404243140926995</v>
+        <v>0.06289128833426069</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08659431384227945</v>
+        <v>0.1019977598420342</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2313121378524193</v>
+        <v>0.1886386661797255</v>
       </c>
     </row>
     <row r="6">
@@ -564,25 +564,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0256679353092471</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.004575382974968281</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.863724429748117</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.07841388265548134</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.01669737712673798</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.03463849349175589</v>
-      </c>
+        <v>0.033075347815321</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.1866617005358912</v>
+        <v>0.1392694899068987</v>
       </c>
     </row>
     <row r="7">
@@ -592,25 +582,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01771203847967302</v>
+        <v>0.02282775969911425</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002312714157955482</v>
+        <v>0.002877408574986257</v>
       </c>
       <c r="D7" t="n">
-        <v>1.732859824749732</v>
+        <v>1.413239325310184</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05534163729948974</v>
+        <v>0.05824660992423984</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01317595815273482</v>
+        <v>0.01718184450884557</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02224811880661143</v>
+        <v>0.02847367488938306</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1787058037063171</v>
+        <v>0.1290219017906919</v>
       </c>
     </row>
     <row r="8">
@@ -620,25 +610,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01017962835927406</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.001382291709391501</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.7394120925014661</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.05506278969102659</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.007468783524116581</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0128904731944318</v>
-      </c>
+        <v>0.01432766963596442</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>0.1711733935859182</v>
+        <v>0.1205218117275421</v>
       </c>
     </row>
     <row r="9">
@@ -648,25 +628,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007078955541027616</v>
+        <v>0.01128786288893247</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001339058309943384</v>
+        <v>0.006679985189627877</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2578219859705039</v>
+        <v>-0.2362902133199316</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03329880170089298</v>
+        <v>0.05838131538722428</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004453323458616759</v>
+        <v>-0.00189088772596585</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009704587623438628</v>
+        <v>0.02446661350383084</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1680727207676717</v>
+        <v>0.1174820049805101</v>
       </c>
     </row>
     <row r="10">
@@ -676,25 +656,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001347583734443785</v>
+        <v>0.005150575418067254</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004606859041834599</v>
+        <v>0.001907382030096153</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06010202711669116</v>
+        <v>-0.5046112344498452</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03486214024434322</v>
+        <v>0.04019586879019919</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0004442649395541191</v>
+        <v>0.001391177501802804</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002250902529333486</v>
+        <v>0.008909973334331656</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1623413489610879</v>
+        <v>0.1113447175096449</v>
       </c>
     </row>
     <row r="11">
@@ -704,7 +684,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02342172758121825</v>
+        <v>0.0238976330016012</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -712,7 +692,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1844154928078623</v>
+        <v>0.1300917750931788</v>
       </c>
     </row>
     <row r="12">
@@ -722,7 +702,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03763462393322742</v>
+        <v>0.03790309372304096</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -730,7 +710,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1986283891598715</v>
+        <v>0.1440972358146186</v>
       </c>
     </row>
     <row r="13">
@@ -740,7 +720,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04438888331551254</v>
+        <v>0.04458223464389077</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -748,7 +728,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.2053826485421567</v>
+        <v>0.1507763767354684</v>
       </c>
     </row>
     <row r="14">
@@ -758,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04944361483145905</v>
+        <v>0.05086384210138638</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -766,7 +746,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2104373800581031</v>
+        <v>0.157057984192964</v>
       </c>
     </row>
     <row r="15">
@@ -776,7 +756,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05401530431502669</v>
+        <v>0.05543922514084509</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -784,7 +764,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2150090695416708</v>
+        <v>0.1616333672324227</v>
       </c>
     </row>
     <row r="16">
@@ -794,25 +774,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05779928885048211</v>
+        <v>0.05758888905792175</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007403461896217422</v>
+        <v>0.008283713963978647</v>
       </c>
       <c r="D16" t="n">
-        <v>11.85849268626988</v>
+        <v>11.85619081500656</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05223502247494265</v>
+        <v>0.05071761771923514</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04327622260331647</v>
+        <v>0.04133174130250004</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07232235509764777</v>
+        <v>0.07384603681334358</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2187930540771262</v>
+        <v>0.1637830311494994</v>
       </c>
     </row>
     <row r="17">
@@ -822,25 +802,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0607907447738734</v>
+        <v>0.06246454816749107</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007236831726647693</v>
+        <v>0.008043627690695396</v>
       </c>
       <c r="D17" t="n">
-        <v>12.23210076616483</v>
+        <v>12.54365822952609</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04936085916821359</v>
+        <v>0.04585919853021007</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04659588638668243</v>
+        <v>0.04668213259341834</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07498560316106433</v>
+        <v>0.07824696374156373</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2217845100005175</v>
+        <v>0.1686586902590687</v>
       </c>
     </row>
     <row r="18">
@@ -850,13 +830,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1609937652266441</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>-0.1061941420915777</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01228733386269351</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-18.60005276615585</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.03593855487942071</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.1303675710094518</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.08202071317370364</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
@@ -868,25 +858,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06317991434890674</v>
+        <v>0.06571682889121765</v>
       </c>
       <c r="C19" t="n">
-        <v>0.007251546407040833</v>
+        <v>0.0080271893419201</v>
       </c>
       <c r="D19" t="n">
-        <v>2205657588155.395</v>
+        <v>12.97719454180985</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05355010983478414</v>
+        <v>0.05245693064346862</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04895466508766864</v>
+        <v>0.04996430543512473</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07740516361014484</v>
+        <v>0.08146935234731062</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2241736795755508</v>
+        <v>0.1719109709827953</v>
       </c>
     </row>
     <row r="20">
@@ -896,25 +886,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.06333486923089782</v>
+        <v>0.06642675937528832</v>
       </c>
       <c r="C20" t="n">
-        <v>0.007470459942775563</v>
+        <v>0.008807015863611984</v>
       </c>
       <c r="D20" t="n">
-        <v>-2146861501808.214</v>
+        <v>12.65377514829668</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05701375089264056</v>
+        <v>0.05440432688346138</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04867969240930516</v>
+        <v>0.04907456038323566</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07799004605249028</v>
+        <v>0.08377895836734112</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2243286344575419</v>
+        <v>0.172620901466866</v>
       </c>
     </row>
     <row r="21">
@@ -924,25 +914,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.06311178390145847</v>
+        <v>0.06421143820889143</v>
       </c>
       <c r="C21" t="n">
-        <v>0.007264729977244719</v>
+        <v>0.00850657440918221</v>
       </c>
       <c r="D21" t="n">
-        <v>12.33083495560344</v>
+        <v>12.43928540507902</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05973643227610392</v>
+        <v>0.05047108041171374</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04886095184582429</v>
+        <v>0.04750727662943188</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07736261595709273</v>
+        <v>0.08091559978835082</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2241055491281026</v>
+        <v>0.1704055803004691</v>
       </c>
     </row>
     <row r="22">
@@ -952,25 +942,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.06352882323557643</v>
+        <v>0.06771490746122449</v>
       </c>
       <c r="C22" t="n">
-        <v>0.007258909351113647</v>
+        <v>0.008362230008146013</v>
       </c>
       <c r="D22" t="n">
-        <v>12.34414641217973</v>
+        <v>12.6762303427851</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06243387354347495</v>
+        <v>0.05695710903125414</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04928659607536647</v>
+        <v>0.05129907030543083</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07777105039578659</v>
+        <v>0.08413074461701819</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2245225884622205</v>
+        <v>0.1739090495528021</v>
       </c>
     </row>
     <row r="23">
@@ -980,25 +970,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.06563676626897748</v>
+        <v>0.0692506945484794</v>
       </c>
       <c r="C23" t="n">
-        <v>0.007439969666634025</v>
+        <v>0.0083450524569745</v>
       </c>
       <c r="D23" t="n">
-        <v>12.76314161521639</v>
+        <v>13.14085127011487</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0575798220498769</v>
+        <v>0.05480444275960535</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05104184199701441</v>
+        <v>0.0528731132637595</v>
       </c>
       <c r="G23" t="n">
-        <v>0.08023169054094062</v>
+        <v>0.08562827583319915</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2266305314956216</v>
+        <v>0.1754448366400571</v>
       </c>
     </row>
     <row r="24">
@@ -1008,25 +998,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.06632239330511167</v>
+        <v>0.07152841509902791</v>
       </c>
       <c r="C24" t="n">
-        <v>0.007261747254362975</v>
+        <v>0.00776604083212342</v>
       </c>
       <c r="D24" t="n">
-        <v>12.89644886104007</v>
+        <v>13.35602331146976</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06136057187355696</v>
+        <v>0.05340495578331553</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05207835314917655</v>
+        <v>0.05628916459631818</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0805664334610466</v>
+        <v>0.08676766560173763</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2273161585317558</v>
+        <v>0.1777225571906056</v>
       </c>
     </row>
     <row r="25">
@@ -1036,25 +1026,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.06776715574512451</v>
+        <v>0.0716482692395748</v>
       </c>
       <c r="C25" t="n">
-        <v>0.007482761128377513</v>
+        <v>0.00831511932356521</v>
       </c>
       <c r="D25" t="n">
-        <v>15690696889049.63</v>
+        <v>12.69184647169015</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07174640948675752</v>
+        <v>0.06446798172904109</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05309059309092674</v>
+        <v>0.05532522009130807</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08244371839932242</v>
+        <v>0.08797131838784195</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2287609209717686</v>
+        <v>0.1778424113311525</v>
       </c>
     </row>
     <row r="26">
@@ -1064,25 +1054,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.06746573575592232</v>
+        <v>0.0735420447311585</v>
       </c>
       <c r="C26" t="n">
-        <v>0.007389980821796724</v>
+        <v>0.008276722301019701</v>
       </c>
       <c r="D26" t="n">
-        <v>12.60653218430758</v>
+        <v>12.81030019070673</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06847121578709091</v>
+        <v>0.05612003391098392</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05297183633920472</v>
+        <v>0.05729873759398849</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08195963517263999</v>
+        <v>0.08978535186832845</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2284595009825664</v>
+        <v>0.1797361868227361</v>
       </c>
     </row>
     <row r="27">
@@ -1092,25 +1082,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.06681108101383898</v>
+        <v>0.07390342536206715</v>
       </c>
       <c r="C27" t="n">
-        <v>0.007719688318505421</v>
+        <v>0.009049699157121269</v>
       </c>
       <c r="D27" t="n">
-        <v>-2977424450330.677</v>
+        <v>12.54422792947498</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06222326196274704</v>
+        <v>0.05869854183001363</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05167070774314321</v>
+        <v>0.05613662179409668</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08195145428453461</v>
+        <v>0.09167022893003768</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2278048462404831</v>
+        <v>0.1800975674536448</v>
       </c>
     </row>
     <row r="28">
@@ -1120,25 +1110,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.06778880662172586</v>
+        <v>0.0737856038310364</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007550059691334927</v>
+        <v>0.007757768211367496</v>
       </c>
       <c r="D28" t="n">
-        <v>12.43989950791204</v>
+        <v>12.66078995606631</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08681465862014252</v>
+        <v>0.0791336495691254</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05298058092188872</v>
+        <v>0.05856537247682368</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08259703232156294</v>
+        <v>0.08900583518524936</v>
       </c>
       <c r="H28" t="n">
-        <v>0.22878257184837</v>
+        <v>0.1799797459226141</v>
       </c>
     </row>
     <row r="29">
@@ -1148,25 +1138,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01051821696571737</v>
+        <v>0.02706431340998981</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001249550696893102</v>
+        <v>0.004886929033736671</v>
       </c>
       <c r="D29" t="n">
-        <v>1.624653633552927</v>
+        <v>0.8147582788376316</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01020129227988134</v>
+        <v>0.01181268684215629</v>
       </c>
       <c r="F29" t="n">
-        <v>0.008064612613370022</v>
+        <v>0.01742668874187392</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01297182131806454</v>
+        <v>0.03670193807810559</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1715119821923615</v>
+        <v>0.1332584555015675</v>
       </c>
     </row>
   </sheetData>
